--- a/biology/Zoologie/Anotomys_leander/Anotomys_leander.xlsx
+++ b/biology/Zoologie/Anotomys_leander/Anotomys_leander.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anotomys leander est un rongeur qui ne se rencontre qu'en Équateur. C'est une espèce de rat aquatique, parfaitement adaptée à la capture et la consommation des poissons en eau douce[1]. L'espèce est classée en danger.
-Ce rat est notamment connu pour avoir été longtemps considéré comme le mammifère dont le caryotype contenait le plus grand nombre de chromosomes (92 chromosomes[2]). Il partageait ce record avec le Rat mangeur de crabes de Pittier. Des analyses ont révélé que le caryotype du Rat-viscache roux d'Argentine contenait encore plus de chromosomes (102) ; il s'agit d'une espèce tétraploïde, c'est-à-dire que chacun de ses chromosomes est présent en quatre exemplaires.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anotomys leander est un rongeur qui ne se rencontre qu'en Équateur. C'est une espèce de rat aquatique, parfaitement adaptée à la capture et la consommation des poissons en eau douce. L'espèce est classée en danger.
+Ce rat est notamment connu pour avoir été longtemps considéré comme le mammifère dont le caryotype contenait le plus grand nombre de chromosomes (92 chromosomes). Il partageait ce record avec le Rat mangeur de crabes de Pittier. Des analyses ont révélé que le caryotype du Rat-viscache roux d'Argentine contenait encore plus de chromosomes (102) ; il s'agit d'une espèce tétraploïde, c'est-à-dire que chacun de ses chromosomes est présent en quatre exemplaires.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit uniquement dans le nord de l'Équateur entre 2 860 and 4 000 m d'altitude. On le trouve le long des ruisseaux rapides et froids qui bordent la forêt subalpine et le paramo[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit uniquement dans le nord de l'Équateur entre 2 860 and 4 000 m d'altitude. On le trouve le long des ruisseaux rapides et froids qui bordent la forêt subalpine et le paramo.
 </t>
         </is>
       </c>
